--- a/data/trans_orig/P21D_4_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D_4_R-Estudios-trans_orig.xlsx
@@ -744,16 +744,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5427</v>
+        <v>5067</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.003921602286138397</v>
+        <v>0.003921602286138398</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02139701264516332</v>
+        <v>0.01997436225735925</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -762,19 +762,19 @@
         <v>4044</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1728</v>
+        <v>1672</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8028</v>
+        <v>8876</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01117749502970107</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004776831839456784</v>
+        <v>0.004622310277719716</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02218802712982384</v>
+        <v>0.02453312200582226</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -783,19 +783,19 @@
         <v>5039</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2209</v>
+        <v>2149</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9787</v>
+        <v>9783</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.008187057557786216</v>
+        <v>0.008187057557786214</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003589005448899411</v>
+        <v>0.003491266056229692</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01590212105552484</v>
+        <v>0.01589607193191483</v>
       </c>
     </row>
     <row r="5">
@@ -812,16 +812,16 @@
         <v>252660</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>248228</v>
+        <v>248588</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>253655</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9960783977138616</v>
+        <v>0.9960783977138618</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9786029873548378</v>
+        <v>0.9800256377426408</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -833,19 +833,19 @@
         <v>357761</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>353777</v>
+        <v>352929</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>360077</v>
+        <v>360133</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9888225049702989</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9778119728701762</v>
+        <v>0.9754668779941772</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9952231681605433</v>
+        <v>0.9953776897222805</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>922</v>
@@ -854,19 +854,19 @@
         <v>610421</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>605673</v>
+        <v>605677</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>613251</v>
+        <v>613311</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9918129424422136</v>
+        <v>0.9918129424422139</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9840978789444751</v>
+        <v>0.9841039280680852</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9964109945511006</v>
+        <v>0.9965087339437704</v>
       </c>
     </row>
     <row r="6">
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3674</v>
+        <v>3397</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0006873364819677685</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.003828737580227455</v>
+        <v>0.003539908216136836</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -979,19 +979,19 @@
         <v>9545</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5138</v>
+        <v>5305</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16535</v>
+        <v>17408</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.009685695371048167</v>
+        <v>0.009685695371048169</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005213018750602384</v>
+        <v>0.005382560833152835</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01677842297129826</v>
+        <v>0.01766345913564417</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>14</v>
@@ -1000,19 +1000,19 @@
         <v>10205</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5719</v>
+        <v>5505</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>17678</v>
+        <v>17920</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.005246677723459036</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00294033934541221</v>
+        <v>0.002830235631637425</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.009089061430663124</v>
+        <v>0.009213436051351031</v>
       </c>
     </row>
     <row r="8">
@@ -1029,7 +1029,7 @@
         <v>958850</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>955836</v>
+        <v>956113</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>959510</v>
@@ -1038,7 +1038,7 @@
         <v>0.9993126635180323</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9961712624197724</v>
+        <v>0.9964600917838632</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1050,19 +1050,19 @@
         <v>975974</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>968984</v>
+        <v>968111</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>980381</v>
+        <v>980214</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9903143046289518</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9832215770287017</v>
+        <v>0.9823365408643561</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9947869812493976</v>
+        <v>0.9946174391668473</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2111</v>
@@ -1071,19 +1071,19 @@
         <v>1934824</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1927351</v>
+        <v>1927109</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1939310</v>
+        <v>1939524</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.994753322276541</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.990910938569337</v>
+        <v>0.9907865639486491</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9970596606545876</v>
+        <v>0.9971697643683626</v>
       </c>
     </row>
     <row r="9">
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6786</v>
+        <v>5973</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004984167053311537</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01954499624931825</v>
+        <v>0.01720235800282807</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>3531</v>
+        <v>3488</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002023126815237526</v>
@@ -1208,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0103181450155327</v>
+        <v>0.01019060116444763</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -1217,19 +1217,19 @@
         <v>2423</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7249</v>
+        <v>7391</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.003514317860867042</v>
+        <v>0.003514317860867041</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.000861753060340819</v>
+        <v>0.0008485696065086535</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01051364084103875</v>
+        <v>0.0107198618802386</v>
       </c>
     </row>
     <row r="11">
@@ -1246,7 +1246,7 @@
         <v>345478</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>340423</v>
+        <v>341236</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>347209</v>
@@ -1255,7 +1255,7 @@
         <v>0.9950158329466884</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9804550037506803</v>
+        <v>0.9827976419971717</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1267,7 +1267,7 @@
         <v>341548</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>338709</v>
+        <v>338752</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>342240</v>
@@ -1276,7 +1276,7 @@
         <v>0.9979768731847625</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9896818549844675</v>
+        <v>0.9898093988355525</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1288,19 +1288,19 @@
         <v>687025</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>682199</v>
+        <v>682057</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>688854</v>
+        <v>688863</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9964856821391329</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9894863591589613</v>
+        <v>0.9892801381197615</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9991382469396591</v>
+        <v>0.9991514303934914</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>3385</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1143</v>
+        <v>1149</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8307</v>
+        <v>8435</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.002169215445230591</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0007322933660088856</v>
+        <v>0.0007361050187772499</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.005323764580388181</v>
+        <v>0.005405854438625879</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -1413,19 +1413,19 @@
         <v>14282</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8900</v>
+        <v>8972</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>22001</v>
+        <v>21802</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.008453013075412181</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.005267545542718843</v>
+        <v>0.00531052534007493</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01302157385418687</v>
+        <v>0.01290417159325464</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>25</v>
@@ -1434,19 +1434,19 @@
         <v>17667</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11381</v>
+        <v>11261</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>26210</v>
+        <v>26924</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.005436008417808818</v>
+        <v>0.005436008417808821</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003501878518161549</v>
+        <v>0.003464933680664708</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.008064807111968579</v>
+        <v>0.008284409707921367</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>1556989</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1552067</v>
+        <v>1551939</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1559231</v>
+        <v>1559225</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9978307845547695</v>
+        <v>0.9978307845547694</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9946762354196118</v>
+        <v>0.994594145561374</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9992677066339911</v>
+        <v>0.9992638949812227</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2343</v>
@@ -1484,19 +1484,19 @@
         <v>1675281</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1667562</v>
+        <v>1667761</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1680663</v>
+        <v>1680591</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9915469869245879</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9869784261458131</v>
+        <v>0.9870958284067443</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.994732454457281</v>
+        <v>0.9946894746599246</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3791</v>
@@ -1505,19 +1505,19 @@
         <v>3232270</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3223727</v>
+        <v>3223013</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3238556</v>
+        <v>3238676</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.994563991582191</v>
+        <v>0.9945639915821912</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9919351928880312</v>
+        <v>0.9917155902920787</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9964981214818384</v>
+        <v>0.9965350663193348</v>
       </c>
     </row>
     <row r="15">
